--- a/zcurve_raver.xlsx
+++ b/zcurve_raver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulte\OneDrive\Dokument\GitHub\z-cuirve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89AFAB4-2321-49B1-A27D-7DBB4CF9643A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4519DDE7-D371-4752-ACAC-A027367B700A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Jn.Number</t>
   </si>
@@ -58,6 +58,27 @@
   </si>
   <si>
     <t>Test.Stat</t>
+  </si>
+  <si>
+    <t>European Journal of Social Psychology, Eur. J. Soc. Psychol</t>
+  </si>
+  <si>
+    <t>10.1002/ejsp.1956</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>10.12</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>2.61</t>
+  </si>
+  <si>
+    <t>2.29</t>
   </si>
 </sst>
 </file>
@@ -375,20 +396,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="5" max="6" width="11.54296875" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="5.90625" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" customWidth="1"/>
+    <col min="5" max="5" width="6.08984375" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" customWidth="1"/>
+    <col min="7" max="7" width="3.54296875" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" customWidth="1"/>
+    <col min="9" max="9" width="3.1796875" customWidth="1"/>
+    <col min="10" max="10" width="4.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -426,6 +451,122 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>2013</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>116</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>2013</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>82</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>2013</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>80</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>2013</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/zcurve_raver.xlsx
+++ b/zcurve_raver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulte\OneDrive\Dokument\GitHub\z-cuirve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4519DDE7-D371-4752-ACAC-A027367B700A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E3E111-8D50-4309-B44B-CED5AE09FA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10720" yWindow="60" windowWidth="8380" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="117">
   <si>
     <t>Jn.Number</t>
   </si>
@@ -79,13 +79,310 @@
   </si>
   <si>
     <t>2.29</t>
+  </si>
+  <si>
+    <t>DOI: 10.1177/1368430212443867</t>
+  </si>
+  <si>
+    <t>Group Processes &amp; Intergroup Relations</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>2.93</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>2.23</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>DOI: 10.1177/1368430211427574</t>
+  </si>
+  <si>
+    <t>11.91</t>
+  </si>
+  <si>
+    <t>12.48</t>
+  </si>
+  <si>
+    <t>7.64</t>
+  </si>
+  <si>
+    <t>11.73</t>
+  </si>
+  <si>
+    <t>6.49</t>
+  </si>
+  <si>
+    <t>5.21</t>
+  </si>
+  <si>
+    <t>13.53</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>6.04</t>
+  </si>
+  <si>
+    <t>2.49</t>
+  </si>
+  <si>
+    <t>3.589</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>5.28</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>3.89</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>5.55</t>
+  </si>
+  <si>
+    <t>4.63</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>4.267</t>
+  </si>
+  <si>
+    <t>3.84</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>cameron</t>
+  </si>
+  <si>
+    <t>DOI: 10.1177/1368430210390721</t>
+  </si>
+  <si>
+    <t>3.09</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>0.959</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>Social Cognition</t>
+  </si>
+  <si>
+    <t>4.34</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>frye2012 (z?)</t>
+  </si>
+  <si>
+    <t>8.53</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>5.68</t>
+  </si>
+  <si>
+    <t>Basic and Applied Social Psychology</t>
+  </si>
+  <si>
+    <t>DOI: 10.1080/01973533.2013.785403</t>
+  </si>
+  <si>
+    <t>7.42</t>
+  </si>
+  <si>
+    <t>5.79</t>
+  </si>
+  <si>
+    <t>20.16</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>DOI: 10.1080/01973533.2013.785404</t>
+  </si>
+  <si>
+    <t>DOI: 10.1080/01973533.2013.785405</t>
+  </si>
+  <si>
+    <t>DOI: 10.1080/01973533.2013.785406</t>
+  </si>
+  <si>
+    <t>4.74</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>21.02</t>
+  </si>
+  <si>
+    <t>13.94</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>7.59</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>0.73</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +390,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,8 +423,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -567,7 +878,1958 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>33</v>
+      </c>
+      <c r="K15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>33</v>
+      </c>
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>33</v>
+      </c>
+      <c r="K17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>33</v>
+      </c>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>33</v>
+      </c>
+      <c r="K19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>24</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>23</v>
+      </c>
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>22</v>
+      </c>
+      <c r="K24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>22</v>
+      </c>
+      <c r="K25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>22</v>
+      </c>
+      <c r="K26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>33</v>
+      </c>
+      <c r="K28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>33</v>
+      </c>
+      <c r="K29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>32</v>
+      </c>
+      <c r="K30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>32</v>
+      </c>
+      <c r="K31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>32</v>
+      </c>
+      <c r="K32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>32</v>
+      </c>
+      <c r="K33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>32</v>
+      </c>
+      <c r="K34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>103</v>
+      </c>
+      <c r="K35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>52</v>
+      </c>
+      <c r="K36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>57</v>
+      </c>
+      <c r="K37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>115</v>
+      </c>
+      <c r="K38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>115</v>
+      </c>
+      <c r="K39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>115</v>
+      </c>
+      <c r="K40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>115</v>
+      </c>
+      <c r="K41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>115</v>
+      </c>
+      <c r="K42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>116</v>
+      </c>
+      <c r="K43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>116</v>
+      </c>
+      <c r="K44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>58</v>
+      </c>
+      <c r="K45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>120</v>
+      </c>
+      <c r="K46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>116</v>
+      </c>
+      <c r="K47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>116</v>
+      </c>
+      <c r="K48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>58</v>
+      </c>
+      <c r="K49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>120</v>
+      </c>
+      <c r="K50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>116</v>
+      </c>
+      <c r="K51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>38</v>
+      </c>
+      <c r="K52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>117</v>
+      </c>
+      <c r="K53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>117</v>
+      </c>
+      <c r="K54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>69</v>
+      </c>
+      <c r="K55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>121</v>
+      </c>
+      <c r="K56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>117</v>
+      </c>
+      <c r="K57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>117</v>
+      </c>
+      <c r="K58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>38</v>
+      </c>
+      <c r="K59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>56</v>
+      </c>
+      <c r="K60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>56</v>
+      </c>
+      <c r="K61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>56</v>
+      </c>
+      <c r="K62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>56</v>
+      </c>
+      <c r="K63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>56</v>
+      </c>
+      <c r="K64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>56</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>56</v>
+      </c>
+      <c r="K66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>56</v>
+      </c>
+      <c r="K67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="H68" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>60</v>
+      </c>
+      <c r="K68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="H69" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>24</v>
+      </c>
+      <c r="K69" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D70" t="s">
+        <v>83</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>19</v>
+      </c>
+      <c r="K70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D71" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>18</v>
+      </c>
+      <c r="K71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>60</v>
+      </c>
+      <c r="K72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
+        <v>83</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="H73" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>29</v>
+      </c>
+      <c r="K73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D74" t="s">
+        <v>83</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="H74" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>30</v>
+      </c>
+      <c r="K74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D75" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="H75" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>30</v>
+      </c>
+      <c r="K75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D76" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>30</v>
+      </c>
+      <c r="K76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D77" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77" t="s">
+        <v>95</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>92</v>
+      </c>
+      <c r="K77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D78" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>92</v>
+      </c>
+      <c r="K78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D79" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>92</v>
+      </c>
+      <c r="K79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D80" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" t="s">
+        <v>95</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>92</v>
+      </c>
+      <c r="K80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D81" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" t="s">
+        <v>95</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>92</v>
+      </c>
+      <c r="K81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D82" t="s">
+        <v>94</v>
+      </c>
+      <c r="E82" t="s">
+        <v>95</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>92</v>
+      </c>
+      <c r="K82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D83" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" t="s">
+        <v>95</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>92</v>
+      </c>
+      <c r="K83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D84" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" t="s">
+        <v>102</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>46</v>
+      </c>
+      <c r="K84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D85" t="s">
+        <v>94</v>
+      </c>
+      <c r="E85" t="s">
+        <v>103</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>48</v>
+      </c>
+      <c r="K85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D86" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>93</v>
+      </c>
+      <c r="K86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D87" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" t="s">
+        <v>104</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>93</v>
+      </c>
+      <c r="K87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D88" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88" t="s">
+        <v>104</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>93</v>
+      </c>
+      <c r="K88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D89" t="s">
+        <v>94</v>
+      </c>
+      <c r="E89" t="s">
+        <v>104</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>93</v>
+      </c>
+      <c r="K89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D90" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" t="s">
+        <v>104</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>93</v>
+      </c>
+      <c r="K90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D91" t="s">
+        <v>94</v>
+      </c>
+      <c r="E91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>93</v>
+      </c>
+      <c r="K91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D92" t="s">
+        <v>94</v>
+      </c>
+      <c r="E92" t="s">
+        <v>104</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>93</v>
+      </c>
+      <c r="K92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D93" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" t="s">
+        <v>104</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>93</v>
+      </c>
+      <c r="K93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D94" t="s">
+        <v>94</v>
+      </c>
+      <c r="E94" t="s">
+        <v>102</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>47</v>
+      </c>
+      <c r="K94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D95" t="s">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>103</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>48</v>
+      </c>
+      <c r="K95" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zcurve_raver.xlsx
+++ b/zcurve_raver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulte\OneDrive\Dokument\GitHub\z-cuirve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E3E111-8D50-4309-B44B-CED5AE09FA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71317AB-F84C-46D5-89A0-514013AB7F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10720" yWindow="60" windowWidth="8380" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="269">
   <si>
     <t>Jn.Number</t>
   </si>
@@ -376,6 +376,462 @@
   </si>
   <si>
     <t>0.73</t>
+  </si>
+  <si>
+    <t>DOI:10.1348/014466610X524263</t>
+  </si>
+  <si>
+    <t>British Journal of Social Psychology</t>
+  </si>
+  <si>
+    <t>117.42</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>Journal of Experimental Social Psychology</t>
+  </si>
+  <si>
+    <t>doi:10.1016/j.jesp.2010.05.014</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>4.29</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>Peace and Conflict Journal of Peace Psychology</t>
+  </si>
+  <si>
+    <t>DOI: 10.1080/10781910903484776</t>
+  </si>
+  <si>
+    <t>2.19</t>
+  </si>
+  <si>
+    <t>1.73</t>
+  </si>
+  <si>
+    <t>.65</t>
+  </si>
+  <si>
+    <t>2012 IEEE RO-MAN: The 21st IEEE International Symposium on Robot and Human Interactive Communication</t>
+  </si>
+  <si>
+    <t>3.64</t>
+  </si>
+  <si>
+    <t>4.07</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>3.68</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>doi: 10.1111/j.1559-1816.2012.00992.x</t>
+  </si>
+  <si>
+    <t>Journal of Applied Social Psychology</t>
+  </si>
+  <si>
+    <t>DOI: 10.1177/1368430212450057</t>
+  </si>
+  <si>
+    <t>21.76</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>4.68</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>2.01</t>
+  </si>
+  <si>
+    <t>4.79</t>
+  </si>
+  <si>
+    <t>doi:10.1016/j.jesp.2008.02.003</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>International Journal of Intercultural Relations</t>
+  </si>
+  <si>
+    <t>doi:10.1016/j.ijintrel.2010.04.002</t>
+  </si>
+  <si>
+    <t>chi2</t>
+  </si>
+  <si>
+    <t>20.03</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>5.81</t>
+  </si>
+  <si>
+    <t>Group Dynamics: Theory, Research, and Practice</t>
+  </si>
+  <si>
+    <t>DOI: 10.1037/a0023752</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>The Journal of Social Psychology</t>
+  </si>
+  <si>
+    <t>DOI: 10.1080/00224545.2012.697080</t>
+  </si>
+  <si>
+    <t>51.53</t>
+  </si>
+  <si>
+    <t>1.97</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>4.098</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>2.856</t>
+  </si>
+  <si>
+    <t>1.739</t>
+  </si>
+  <si>
+    <t>doi: 10.1111/jasp.12245</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>4.32</t>
+  </si>
+  <si>
+    <t>DOI:10.1348/014466609X419901</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>DOI: 10.1177/1368430211418699</t>
+  </si>
+  <si>
+    <t>2.57</t>
+  </si>
+  <si>
+    <t>2.51</t>
+  </si>
+  <si>
+    <t>doi: 10.1111/jasp.12019</t>
+  </si>
+  <si>
+    <t>3.61</t>
+  </si>
+  <si>
+    <t>2.91</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>DOI: 10.1177/1368430207081533</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>5.09</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>3.71</t>
+  </si>
+  <si>
+    <t>doi:10.1016/j.jesp.2011.09.008</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>3.76</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>DOI: 10.1177/1368430211424920</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>5.45</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>vezzali et al 2015</t>
+  </si>
+  <si>
+    <t>2.56</t>
+  </si>
+  <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>9.34</t>
+  </si>
+  <si>
+    <t>4.52</t>
+  </si>
+  <si>
+    <t>5.82</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>DOI: 10.1177/1368430214527853</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1016/j.jesp.2012.11.007</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>11.05</t>
+  </si>
+  <si>
+    <t>7.02</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>11.55</t>
+  </si>
+  <si>
+    <t>6.24</t>
+  </si>
+  <si>
+    <t>DOI: 10.1177/1368430210387805</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>7.93</t>
+  </si>
+  <si>
+    <t>4.02</t>
+  </si>
+  <si>
+    <t>15.63</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>14.07</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>41.58</t>
+  </si>
+  <si>
+    <t>2.69</t>
   </si>
 </sst>
 </file>
@@ -707,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -879,6 +1335,9 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>2012</v>
+      </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
@@ -902,6 +1361,9 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>2012</v>
+      </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
@@ -925,6 +1387,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>2012</v>
+      </c>
       <c r="D8" t="s">
         <v>19</v>
       </c>
@@ -948,6 +1413,9 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>2012</v>
+      </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
@@ -971,6 +1439,9 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>2012</v>
+      </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
@@ -994,6 +1465,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>2012</v>
+      </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
@@ -1017,6 +1491,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>2012</v>
+      </c>
       <c r="D12" t="s">
         <v>19</v>
       </c>
@@ -1040,6 +1517,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>2012</v>
+      </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
@@ -1063,6 +1543,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>2012</v>
+      </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
@@ -1086,6 +1569,9 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>2012</v>
+      </c>
       <c r="D15" t="s">
         <v>19</v>
       </c>
@@ -1109,6 +1595,9 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>2012</v>
+      </c>
       <c r="D16" t="s">
         <v>19</v>
       </c>
@@ -1131,7 +1620,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>2012</v>
+      </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
@@ -1154,7 +1646,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>2012</v>
+      </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
@@ -1177,7 +1672,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>2012</v>
+      </c>
       <c r="D19" t="s">
         <v>19</v>
       </c>
@@ -1200,7 +1698,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>2012</v>
+      </c>
       <c r="D20" t="s">
         <v>19</v>
       </c>
@@ -1223,7 +1724,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>2012</v>
+      </c>
       <c r="D21" t="s">
         <v>19</v>
       </c>
@@ -1246,7 +1750,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>2012</v>
+      </c>
       <c r="D22" t="s">
         <v>19</v>
       </c>
@@ -1269,7 +1776,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>2012</v>
+      </c>
       <c r="D23" t="s">
         <v>19</v>
       </c>
@@ -1292,7 +1802,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>2012</v>
+      </c>
       <c r="D24" t="s">
         <v>19</v>
       </c>
@@ -1315,7 +1828,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>2012</v>
+      </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
@@ -1338,7 +1854,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>2012</v>
+      </c>
       <c r="D26" t="s">
         <v>19</v>
       </c>
@@ -1361,7 +1880,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>2012</v>
+      </c>
       <c r="D27" t="s">
         <v>19</v>
       </c>
@@ -1384,7 +1906,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>2012</v>
+      </c>
       <c r="D28" t="s">
         <v>19</v>
       </c>
@@ -1407,7 +1932,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>2012</v>
+      </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
@@ -1430,7 +1958,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>2012</v>
+      </c>
       <c r="D30" t="s">
         <v>19</v>
       </c>
@@ -1453,7 +1984,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <v>2012</v>
+      </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
@@ -1476,7 +2010,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <v>2012</v>
+      </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
@@ -1500,6 +2037,9 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <v>2012</v>
+      </c>
       <c r="D33" t="s">
         <v>19</v>
       </c>
@@ -1523,6 +2063,9 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <v>2012</v>
+      </c>
       <c r="D34" t="s">
         <v>19</v>
       </c>
@@ -1546,6 +2089,9 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <v>2012</v>
+      </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
@@ -1569,6 +2115,9 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <v>2012</v>
+      </c>
       <c r="D36" t="s">
         <v>19</v>
       </c>
@@ -1592,6 +2141,9 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>2012</v>
+      </c>
       <c r="D37" t="s">
         <v>19</v>
       </c>
@@ -1615,6 +2167,9 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <v>2012</v>
+      </c>
       <c r="D38" t="s">
         <v>19</v>
       </c>
@@ -1638,6 +2193,9 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C39">
+        <v>2012</v>
+      </c>
       <c r="D39" t="s">
         <v>19</v>
       </c>
@@ -1661,6 +2219,9 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C40">
+        <v>2012</v>
+      </c>
       <c r="D40" t="s">
         <v>19</v>
       </c>
@@ -1684,6 +2245,9 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <v>2012</v>
+      </c>
       <c r="D41" t="s">
         <v>19</v>
       </c>
@@ -1707,6 +2271,9 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C42">
+        <v>2012</v>
+      </c>
       <c r="D42" t="s">
         <v>19</v>
       </c>
@@ -1733,6 +2300,9 @@
       <c r="A43" t="s">
         <v>74</v>
       </c>
+      <c r="C43">
+        <v>2011</v>
+      </c>
       <c r="F43">
         <v>1</v>
       </c>
@@ -1750,6 +2320,9 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C44">
+        <v>2011</v>
+      </c>
       <c r="F44">
         <v>1</v>
       </c>
@@ -1767,6 +2340,9 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <v>2011</v>
+      </c>
       <c r="F45">
         <v>1</v>
       </c>
@@ -1784,6 +2360,9 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C46">
+        <v>2011</v>
+      </c>
       <c r="F46">
         <v>1</v>
       </c>
@@ -1801,6 +2380,9 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <v>2011</v>
+      </c>
       <c r="F47">
         <v>1</v>
       </c>
@@ -1818,6 +2400,9 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C48">
+        <v>2011</v>
+      </c>
       <c r="F48">
         <v>1</v>
       </c>
@@ -1834,7 +2419,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C49">
+        <v>2011</v>
+      </c>
       <c r="F49">
         <v>1</v>
       </c>
@@ -1851,7 +2439,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C50">
+        <v>2011</v>
+      </c>
       <c r="F50">
         <v>1</v>
       </c>
@@ -1868,7 +2459,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C51">
+        <v>2011</v>
+      </c>
       <c r="F51">
         <v>1</v>
       </c>
@@ -1885,7 +2479,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C52">
+        <v>2011</v>
+      </c>
       <c r="F52">
         <v>1</v>
       </c>
@@ -1902,7 +2499,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C53">
+        <v>2011</v>
+      </c>
       <c r="F53">
         <v>1</v>
       </c>
@@ -1919,7 +2519,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <v>2011</v>
+      </c>
       <c r="F54">
         <v>1</v>
       </c>
@@ -1936,7 +2539,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C55">
+        <v>2011</v>
+      </c>
       <c r="F55">
         <v>1</v>
       </c>
@@ -1953,7 +2559,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C56">
+        <v>2011</v>
+      </c>
       <c r="F56">
         <v>1</v>
       </c>
@@ -1970,7 +2579,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C57">
+        <v>2011</v>
+      </c>
       <c r="F57">
         <v>1</v>
       </c>
@@ -1987,7 +2599,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C58">
+        <v>2011</v>
+      </c>
       <c r="F58">
         <v>1</v>
       </c>
@@ -2004,7 +2619,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C59">
+        <v>2011</v>
+      </c>
       <c r="F59">
         <v>1</v>
       </c>
@@ -2021,7 +2639,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C60">
+        <v>2011</v>
+      </c>
       <c r="D60" s="1" t="s">
         <v>19</v>
       </c>
@@ -2044,7 +2665,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C61">
+        <v>2011</v>
+      </c>
       <c r="D61" s="1" t="s">
         <v>19</v>
       </c>
@@ -2067,7 +2691,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C62">
+        <v>2011</v>
+      </c>
       <c r="D62" s="1" t="s">
         <v>19</v>
       </c>
@@ -2090,7 +2717,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C63">
+        <v>2011</v>
+      </c>
       <c r="D63" s="1" t="s">
         <v>19</v>
       </c>
@@ -2113,7 +2743,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C64">
+        <v>2011</v>
+      </c>
       <c r="D64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2137,6 +2770,9 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C65">
+        <v>2011</v>
+      </c>
       <c r="D65" s="1" t="s">
         <v>19</v>
       </c>
@@ -2160,6 +2796,9 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C66">
+        <v>2011</v>
+      </c>
       <c r="D66" s="1" t="s">
         <v>19</v>
       </c>
@@ -2183,6 +2822,9 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C67">
+        <v>2011</v>
+      </c>
       <c r="D67" s="1" t="s">
         <v>19</v>
       </c>
@@ -2209,10 +2851,12 @@
       <c r="A68" t="s">
         <v>89</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="C68">
+        <v>2012</v>
+      </c>
+      <c r="D68" t="s">
         <v>83</v>
       </c>
-      <c r="E68" s="2"/>
       <c r="F68">
         <v>2</v>
       </c>
@@ -2230,6 +2874,9 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C69">
+        <v>2012</v>
+      </c>
       <c r="D69" t="s">
         <v>83</v>
       </c>
@@ -2250,6 +2897,9 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C70">
+        <v>2012</v>
+      </c>
       <c r="D70" t="s">
         <v>83</v>
       </c>
@@ -2270,6 +2920,9 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C71">
+        <v>2012</v>
+      </c>
       <c r="D71" t="s">
         <v>83</v>
       </c>
@@ -2290,10 +2943,12 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D72" s="2" t="s">
+      <c r="C72">
+        <v>2012</v>
+      </c>
+      <c r="D72" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="2"/>
       <c r="F72">
         <v>2</v>
       </c>
@@ -2311,6 +2966,9 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C73">
+        <v>2012</v>
+      </c>
       <c r="D73" t="s">
         <v>83</v>
       </c>
@@ -2331,6 +2989,9 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C74">
+        <v>2012</v>
+      </c>
       <c r="D74" t="s">
         <v>83</v>
       </c>
@@ -2351,6 +3012,9 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C75">
+        <v>2012</v>
+      </c>
       <c r="D75" t="s">
         <v>83</v>
       </c>
@@ -2371,10 +3035,12 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D76" s="2" t="s">
+      <c r="C76">
+        <v>2012</v>
+      </c>
+      <c r="D76" t="s">
         <v>83</v>
       </c>
-      <c r="E76" s="2"/>
       <c r="F76">
         <v>2</v>
       </c>
@@ -2826,6 +3492,3877 @@
       </c>
       <c r="K95" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E96" t="s">
+        <v>117</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>121</v>
+      </c>
+      <c r="K96" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D97" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" t="s">
+        <v>117</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>120</v>
+      </c>
+      <c r="K97" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D98" t="s">
+        <v>118</v>
+      </c>
+      <c r="E98" t="s">
+        <v>117</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>85</v>
+      </c>
+      <c r="K98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D99" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E99" t="s">
+        <v>117</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>82</v>
+      </c>
+      <c r="K99" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D100" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E100" t="s">
+        <v>122</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="H100" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>31</v>
+      </c>
+      <c r="K100" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D101" t="s">
+        <v>121</v>
+      </c>
+      <c r="E101" t="s">
+        <v>122</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="H101" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>57</v>
+      </c>
+      <c r="K101" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D102" t="s">
+        <v>121</v>
+      </c>
+      <c r="E102" t="s">
+        <v>122</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="H102" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>58</v>
+      </c>
+      <c r="K102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D103" t="s">
+        <v>121</v>
+      </c>
+      <c r="E103" t="s">
+        <v>122</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="H103" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>58</v>
+      </c>
+      <c r="K103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D104" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" t="s">
+        <v>122</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="H104" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>58</v>
+      </c>
+      <c r="K104" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D105" t="s">
+        <v>121</v>
+      </c>
+      <c r="E105" t="s">
+        <v>122</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="H105" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>26</v>
+      </c>
+      <c r="K105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D106" t="s">
+        <v>129</v>
+      </c>
+      <c r="E106" t="s">
+        <v>130</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>87</v>
+      </c>
+      <c r="K106" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D107" t="s">
+        <v>129</v>
+      </c>
+      <c r="E107" t="s">
+        <v>130</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>58</v>
+      </c>
+      <c r="K107" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D108" t="s">
+        <v>129</v>
+      </c>
+      <c r="E108" t="s">
+        <v>130</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>58</v>
+      </c>
+      <c r="K108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D109" t="s">
+        <v>129</v>
+      </c>
+      <c r="E109" t="s">
+        <v>130</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>58</v>
+      </c>
+      <c r="K109" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D110" t="s">
+        <v>134</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>20</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>63</v>
+      </c>
+      <c r="K110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D111" t="s">
+        <v>134</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>64</v>
+      </c>
+      <c r="K111" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D112" t="s">
+        <v>134</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
+        <v>20</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>63</v>
+      </c>
+      <c r="K112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D113" t="s">
+        <v>134</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>63</v>
+      </c>
+      <c r="K113" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D114" t="s">
+        <v>134</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="H114" t="s">
+        <v>20</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>63</v>
+      </c>
+      <c r="K114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D115" t="s">
+        <v>134</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>63</v>
+      </c>
+      <c r="K115" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D116" t="s">
+        <v>134</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>63</v>
+      </c>
+      <c r="K116" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D117" t="s">
+        <v>134</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>63</v>
+      </c>
+      <c r="K117" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D118" t="s">
+        <v>134</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>63</v>
+      </c>
+      <c r="K118" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D119" t="s">
+        <v>134</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="H119" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>63</v>
+      </c>
+      <c r="K119" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D120" t="s">
+        <v>134</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
+        <v>20</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>63</v>
+      </c>
+      <c r="K120" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D121" t="s">
+        <v>147</v>
+      </c>
+      <c r="E121" t="s">
+        <v>146</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="H121" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>72</v>
+      </c>
+      <c r="K121" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D122" t="s">
+        <v>147</v>
+      </c>
+      <c r="E122" t="s">
+        <v>146</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>34</v>
+      </c>
+      <c r="K122" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="123" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" t="s">
+        <v>148</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="H123" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>37</v>
+      </c>
+      <c r="K123" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" t="s">
+        <v>148</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="H124" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>19</v>
+      </c>
+      <c r="K124" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" t="s">
+        <v>148</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="H125" t="s">
+        <v>20</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>18</v>
+      </c>
+      <c r="K125" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" t="s">
+        <v>148</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="H126" t="s">
+        <v>20</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>37</v>
+      </c>
+      <c r="K126" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" t="s">
+        <v>148</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
+        <v>20</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>37</v>
+      </c>
+      <c r="K127" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="128" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" t="s">
+        <v>148</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="H128" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>19</v>
+      </c>
+      <c r="K128" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="129" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" t="s">
+        <v>148</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="H129" t="s">
+        <v>20</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>18</v>
+      </c>
+      <c r="K129" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" t="s">
+        <v>148</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="H130" t="s">
+        <v>20</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>37</v>
+      </c>
+      <c r="K130" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" t="s">
+        <v>148</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="H131" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131">
+        <v>56</v>
+      </c>
+      <c r="K131" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" t="s">
+        <v>148</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="H132" t="s">
+        <v>13</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132">
+        <v>56</v>
+      </c>
+      <c r="K132" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" t="s">
+        <v>148</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="H133" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>56</v>
+      </c>
+      <c r="K133" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" t="s">
+        <v>148</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="H134" t="s">
+        <v>13</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>56</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D135" t="s">
+        <v>121</v>
+      </c>
+      <c r="E135" t="s">
+        <v>158</v>
+      </c>
+      <c r="F135">
+        <v>3</v>
+      </c>
+      <c r="H135" t="s">
+        <v>20</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>90</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D136" t="s">
+        <v>121</v>
+      </c>
+      <c r="E136" t="s">
+        <v>158</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+      <c r="H136" t="s">
+        <v>20</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>90</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D137" t="s">
+        <v>121</v>
+      </c>
+      <c r="E137" t="s">
+        <v>158</v>
+      </c>
+      <c r="F137">
+        <v>3</v>
+      </c>
+      <c r="H137" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>90</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D138" t="s">
+        <v>121</v>
+      </c>
+      <c r="E138" t="s">
+        <v>158</v>
+      </c>
+      <c r="F138">
+        <v>3</v>
+      </c>
+      <c r="H138" t="s">
+        <v>20</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>90</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D139" t="s">
+        <v>121</v>
+      </c>
+      <c r="E139" t="s">
+        <v>158</v>
+      </c>
+      <c r="F139">
+        <v>3</v>
+      </c>
+      <c r="H139" t="s">
+        <v>20</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>90</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D140" t="s">
+        <v>121</v>
+      </c>
+      <c r="E140" t="s">
+        <v>158</v>
+      </c>
+      <c r="F140">
+        <v>3</v>
+      </c>
+      <c r="H140" t="s">
+        <v>20</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>90</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D141" t="s">
+        <v>121</v>
+      </c>
+      <c r="E141" t="s">
+        <v>158</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="H141" t="s">
+        <v>20</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D142" t="s">
+        <v>121</v>
+      </c>
+      <c r="E142" t="s">
+        <v>158</v>
+      </c>
+      <c r="F142">
+        <v>3</v>
+      </c>
+      <c r="H142" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D143" t="s">
+        <v>121</v>
+      </c>
+      <c r="E143" t="s">
+        <v>158</v>
+      </c>
+      <c r="F143">
+        <v>3</v>
+      </c>
+      <c r="H143" t="s">
+        <v>20</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D144" t="s">
+        <v>121</v>
+      </c>
+      <c r="E144" t="s">
+        <v>158</v>
+      </c>
+      <c r="F144">
+        <v>3</v>
+      </c>
+      <c r="H144" t="s">
+        <v>20</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D145" t="s">
+        <v>121</v>
+      </c>
+      <c r="E145" t="s">
+        <v>158</v>
+      </c>
+      <c r="F145">
+        <v>3</v>
+      </c>
+      <c r="H145" t="s">
+        <v>20</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="146" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D146" t="s">
+        <v>121</v>
+      </c>
+      <c r="E146" t="s">
+        <v>158</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+      <c r="H146" t="s">
+        <v>20</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D147" t="s">
+        <v>121</v>
+      </c>
+      <c r="E147" t="s">
+        <v>158</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="H147" t="s">
+        <v>20</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="148" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D148" t="s">
+        <v>121</v>
+      </c>
+      <c r="E148" t="s">
+        <v>158</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="H148" t="s">
+        <v>20</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>94</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D149" t="s">
+        <v>121</v>
+      </c>
+      <c r="E149" t="s">
+        <v>158</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="H149" t="s">
+        <v>20</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>94</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D150" t="s">
+        <v>121</v>
+      </c>
+      <c r="E150" t="s">
+        <v>158</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+      <c r="H150" t="s">
+        <v>20</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>94</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D151" t="s">
+        <v>121</v>
+      </c>
+      <c r="E151" t="s">
+        <v>158</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="H151" t="s">
+        <v>20</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>94</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="152" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D152" t="s">
+        <v>121</v>
+      </c>
+      <c r="E152" t="s">
+        <v>158</v>
+      </c>
+      <c r="F152">
+        <v>3</v>
+      </c>
+      <c r="H152" t="s">
+        <v>20</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>94</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="153" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D153" t="s">
+        <v>121</v>
+      </c>
+      <c r="E153" t="s">
+        <v>158</v>
+      </c>
+      <c r="F153">
+        <v>3</v>
+      </c>
+      <c r="H153" t="s">
+        <v>20</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>94</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="154" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D154" t="s">
+        <v>121</v>
+      </c>
+      <c r="E154" t="s">
+        <v>158</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
+      </c>
+      <c r="H154" t="s">
+        <v>20</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>94</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="155" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D155" t="s">
+        <v>176</v>
+      </c>
+      <c r="E155" t="s">
+        <v>177</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
+      <c r="H155" t="s">
+        <v>178</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155" t="s">
+        <v>164</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="156" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D156" t="s">
+        <v>176</v>
+      </c>
+      <c r="E156" t="s">
+        <v>177</v>
+      </c>
+      <c r="F156">
+        <v>3</v>
+      </c>
+      <c r="H156" t="s">
+        <v>178</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>164</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="157" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D157" t="s">
+        <v>176</v>
+      </c>
+      <c r="E157" t="s">
+        <v>177</v>
+      </c>
+      <c r="F157">
+        <v>3</v>
+      </c>
+      <c r="H157" t="s">
+        <v>178</v>
+      </c>
+      <c r="I157">
+        <v>4</v>
+      </c>
+      <c r="J157" t="s">
+        <v>164</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="158" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D158" t="s">
+        <v>176</v>
+      </c>
+      <c r="E158" t="s">
+        <v>177</v>
+      </c>
+      <c r="F158">
+        <v>3</v>
+      </c>
+      <c r="H158" t="s">
+        <v>178</v>
+      </c>
+      <c r="I158">
+        <v>3</v>
+      </c>
+      <c r="J158" t="s">
+        <v>164</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="159" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D159" t="s">
+        <v>182</v>
+      </c>
+      <c r="E159" t="s">
+        <v>183</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="H159" t="s">
+        <v>20</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>30</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="160" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D160" t="s">
+        <v>182</v>
+      </c>
+      <c r="E160" t="s">
+        <v>183</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="H160" t="s">
+        <v>20</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>28</v>
+      </c>
+      <c r="K160" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="161" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D161" t="s">
+        <v>182</v>
+      </c>
+      <c r="E161" t="s">
+        <v>183</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="H161" t="s">
+        <v>20</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>26</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D162" t="s">
+        <v>186</v>
+      </c>
+      <c r="E162" t="s">
+        <v>187</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="H162" t="s">
+        <v>20</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>55</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="163" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D163" t="s">
+        <v>186</v>
+      </c>
+      <c r="E163" t="s">
+        <v>187</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="H163" t="s">
+        <v>20</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>55</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D164" t="s">
+        <v>186</v>
+      </c>
+      <c r="E164" t="s">
+        <v>187</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="H164" t="s">
+        <v>20</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>188</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="165" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D165" t="s">
+        <v>186</v>
+      </c>
+      <c r="E165" t="s">
+        <v>187</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="H165" t="s">
+        <v>20</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165" t="s">
+        <v>164</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="166" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D166" t="s">
+        <v>186</v>
+      </c>
+      <c r="E166" t="s">
+        <v>187</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="H166" t="s">
+        <v>20</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166" t="s">
+        <v>164</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="167" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D167" t="s">
+        <v>186</v>
+      </c>
+      <c r="E167" t="s">
+        <v>187</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="H167" t="s">
+        <v>20</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167" t="s">
+        <v>164</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="168" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D168" t="s">
+        <v>186</v>
+      </c>
+      <c r="E168" t="s">
+        <v>187</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="H168" t="s">
+        <v>20</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168" t="s">
+        <v>164</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="169" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D169" t="s">
+        <v>186</v>
+      </c>
+      <c r="E169" t="s">
+        <v>187</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="H169" t="s">
+        <v>20</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169" t="s">
+        <v>164</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="170" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D170" t="s">
+        <v>186</v>
+      </c>
+      <c r="E170" t="s">
+        <v>187</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="H170" t="s">
+        <v>20</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170" t="s">
+        <v>164</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="171" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D171" t="s">
+        <v>186</v>
+      </c>
+      <c r="E171" t="s">
+        <v>187</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="H171" t="s">
+        <v>20</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171" t="s">
+        <v>164</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="172" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D172" t="s">
+        <v>186</v>
+      </c>
+      <c r="E172" t="s">
+        <v>187</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="H172" t="s">
+        <v>20</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="s">
+        <v>164</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="173" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D173" t="s">
+        <v>147</v>
+      </c>
+      <c r="E173" t="s">
+        <v>197</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="H173" t="s">
+        <v>20</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>127</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="174" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D174" t="s">
+        <v>147</v>
+      </c>
+      <c r="E174" t="s">
+        <v>197</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="H174" t="s">
+        <v>20</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>127</v>
+      </c>
+      <c r="K174" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="175" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D175" t="s">
+        <v>147</v>
+      </c>
+      <c r="E175" t="s">
+        <v>197</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="H175" t="s">
+        <v>20</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>127</v>
+      </c>
+      <c r="K175" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="176" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D176" t="s">
+        <v>147</v>
+      </c>
+      <c r="E176" t="s">
+        <v>197</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="H176" t="s">
+        <v>178</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176" t="s">
+        <v>164</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="177" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D177" t="s">
+        <v>147</v>
+      </c>
+      <c r="E177" t="s">
+        <v>197</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="H177" t="s">
+        <v>178</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177" t="s">
+        <v>164</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="178" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D178" t="s">
+        <v>147</v>
+      </c>
+      <c r="E178" t="s">
+        <v>197</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="H178" t="s">
+        <v>178</v>
+      </c>
+      <c r="I178">
+        <v>2</v>
+      </c>
+      <c r="J178" t="s">
+        <v>164</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="179" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D179" t="s">
+        <v>118</v>
+      </c>
+      <c r="E179" t="s">
+        <v>201</v>
+      </c>
+      <c r="F179">
+        <v>2</v>
+      </c>
+      <c r="H179" t="s">
+        <v>20</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>23</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="180" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D180" t="s">
+        <v>118</v>
+      </c>
+      <c r="E180" t="s">
+        <v>201</v>
+      </c>
+      <c r="F180">
+        <v>2</v>
+      </c>
+      <c r="H180" t="s">
+        <v>20</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>23</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="181" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D181" t="s">
+        <v>118</v>
+      </c>
+      <c r="E181" t="s">
+        <v>201</v>
+      </c>
+      <c r="F181">
+        <v>2</v>
+      </c>
+      <c r="H181" t="s">
+        <v>20</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>38</v>
+      </c>
+      <c r="K181" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="182" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D182" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182" t="s">
+        <v>205</v>
+      </c>
+      <c r="F182">
+        <v>2</v>
+      </c>
+      <c r="H182" t="s">
+        <v>20</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>48</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D183" t="s">
+        <v>19</v>
+      </c>
+      <c r="E183" t="s">
+        <v>205</v>
+      </c>
+      <c r="F183">
+        <v>2</v>
+      </c>
+      <c r="H183" t="s">
+        <v>20</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>39</v>
+      </c>
+      <c r="K183" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D184" t="s">
+        <v>19</v>
+      </c>
+      <c r="E184" t="s">
+        <v>205</v>
+      </c>
+      <c r="F184">
+        <v>2</v>
+      </c>
+      <c r="H184" t="s">
+        <v>20</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>39</v>
+      </c>
+      <c r="K184" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="185" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D185" t="s">
+        <v>19</v>
+      </c>
+      <c r="E185" t="s">
+        <v>205</v>
+      </c>
+      <c r="F185">
+        <v>2</v>
+      </c>
+      <c r="H185" t="s">
+        <v>20</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>39</v>
+      </c>
+      <c r="K185" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D186" t="s">
+        <v>147</v>
+      </c>
+      <c r="E186" t="s">
+        <v>208</v>
+      </c>
+      <c r="F186">
+        <v>2</v>
+      </c>
+      <c r="H186" t="s">
+        <v>20</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>34</v>
+      </c>
+      <c r="K186" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D187" t="s">
+        <v>147</v>
+      </c>
+      <c r="E187" t="s">
+        <v>208</v>
+      </c>
+      <c r="F187">
+        <v>2</v>
+      </c>
+      <c r="H187" t="s">
+        <v>20</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>34</v>
+      </c>
+      <c r="K187" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="188" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D188" t="s">
+        <v>147</v>
+      </c>
+      <c r="E188" t="s">
+        <v>208</v>
+      </c>
+      <c r="F188">
+        <v>2</v>
+      </c>
+      <c r="H188" t="s">
+        <v>20</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>34</v>
+      </c>
+      <c r="K188" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="189" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D189" t="s">
+        <v>147</v>
+      </c>
+      <c r="E189" t="s">
+        <v>208</v>
+      </c>
+      <c r="F189">
+        <v>2</v>
+      </c>
+      <c r="H189" t="s">
+        <v>20</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>63</v>
+      </c>
+      <c r="K189" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D190" t="s">
+        <v>147</v>
+      </c>
+      <c r="E190" t="s">
+        <v>208</v>
+      </c>
+      <c r="F190">
+        <v>2</v>
+      </c>
+      <c r="H190" t="s">
+        <v>20</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>62</v>
+      </c>
+      <c r="K190" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="191" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D191" t="s">
+        <v>147</v>
+      </c>
+      <c r="E191" t="s">
+        <v>208</v>
+      </c>
+      <c r="F191">
+        <v>2</v>
+      </c>
+      <c r="H191" t="s">
+        <v>20</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>62</v>
+      </c>
+      <c r="K191" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="192" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D192" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E192" t="s">
+        <v>208</v>
+      </c>
+      <c r="F192">
+        <v>2</v>
+      </c>
+      <c r="H192" t="s">
+        <v>20</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>62</v>
+      </c>
+      <c r="K192" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="193" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D193" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E193" t="s">
+        <v>208</v>
+      </c>
+      <c r="F193">
+        <v>2</v>
+      </c>
+      <c r="H193" t="s">
+        <v>20</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>62</v>
+      </c>
+      <c r="K193" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D194" t="s">
+        <v>19</v>
+      </c>
+      <c r="E194" t="s">
+        <v>213</v>
+      </c>
+      <c r="F194">
+        <v>3</v>
+      </c>
+      <c r="H194" t="s">
+        <v>13</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>26</v>
+      </c>
+      <c r="K194" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="195" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D195" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" t="s">
+        <v>213</v>
+      </c>
+      <c r="F195">
+        <v>3</v>
+      </c>
+      <c r="H195" t="s">
+        <v>20</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>13</v>
+      </c>
+      <c r="K195" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="196" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D196" t="s">
+        <v>19</v>
+      </c>
+      <c r="E196" t="s">
+        <v>213</v>
+      </c>
+      <c r="F196">
+        <v>3</v>
+      </c>
+      <c r="H196" t="s">
+        <v>20</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>13</v>
+      </c>
+      <c r="K196" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="197" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D197" t="s">
+        <v>19</v>
+      </c>
+      <c r="E197" t="s">
+        <v>213</v>
+      </c>
+      <c r="F197">
+        <v>3</v>
+      </c>
+      <c r="H197" t="s">
+        <v>13</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>21</v>
+      </c>
+      <c r="K197" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="198" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D198" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198" t="s">
+        <v>213</v>
+      </c>
+      <c r="F198">
+        <v>3</v>
+      </c>
+      <c r="H198" t="s">
+        <v>20</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>10</v>
+      </c>
+      <c r="K198" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D199" t="s">
+        <v>19</v>
+      </c>
+      <c r="E199" t="s">
+        <v>213</v>
+      </c>
+      <c r="F199">
+        <v>3</v>
+      </c>
+      <c r="H199" t="s">
+        <v>20</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>11</v>
+      </c>
+      <c r="K199" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="200" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D200" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200" t="s">
+        <v>213</v>
+      </c>
+      <c r="F200">
+        <v>3</v>
+      </c>
+      <c r="H200" t="s">
+        <v>20</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>25</v>
+      </c>
+      <c r="K200" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="201" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D201" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201" t="s">
+        <v>213</v>
+      </c>
+      <c r="F201">
+        <v>3</v>
+      </c>
+      <c r="H201" t="s">
+        <v>20</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>25</v>
+      </c>
+      <c r="K201" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="202" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D202" t="s">
+        <v>19</v>
+      </c>
+      <c r="E202" t="s">
+        <v>213</v>
+      </c>
+      <c r="F202">
+        <v>3</v>
+      </c>
+      <c r="H202" t="s">
+        <v>20</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>25</v>
+      </c>
+      <c r="K202" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D203" t="s">
+        <v>121</v>
+      </c>
+      <c r="E203" t="s">
+        <v>220</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="H203" t="s">
+        <v>20</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>32</v>
+      </c>
+      <c r="K203" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="204" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D204" t="s">
+        <v>121</v>
+      </c>
+      <c r="E204" t="s">
+        <v>220</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="H204" t="s">
+        <v>20</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>32</v>
+      </c>
+      <c r="K204" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="205" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D205" t="s">
+        <v>121</v>
+      </c>
+      <c r="E205" t="s">
+        <v>220</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="H205" t="s">
+        <v>20</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>16</v>
+      </c>
+      <c r="K205" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="206" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D206" t="s">
+        <v>121</v>
+      </c>
+      <c r="E206" t="s">
+        <v>220</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="H206" t="s">
+        <v>20</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>16</v>
+      </c>
+      <c r="K206" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="207" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D207" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E207" t="s">
+        <v>220</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="H207" t="s">
+        <v>20</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>32</v>
+      </c>
+      <c r="K207" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="208" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D208" t="s">
+        <v>19</v>
+      </c>
+      <c r="E208" t="s">
+        <v>224</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="H208" t="s">
+        <v>20</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>42</v>
+      </c>
+      <c r="K208" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D209" t="s">
+        <v>19</v>
+      </c>
+      <c r="E209" t="s">
+        <v>224</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="H209" t="s">
+        <v>20</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>21</v>
+      </c>
+      <c r="K209" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D210" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210" t="s">
+        <v>224</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="H210" t="s">
+        <v>20</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>42</v>
+      </c>
+      <c r="K210" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D211" t="s">
+        <v>19</v>
+      </c>
+      <c r="E211" t="s">
+        <v>224</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="H211" t="s">
+        <v>20</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>21</v>
+      </c>
+      <c r="K211" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D212" t="s">
+        <v>19</v>
+      </c>
+      <c r="E212" t="s">
+        <v>224</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="H212" t="s">
+        <v>20</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>42</v>
+      </c>
+      <c r="K212" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D213" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213" t="s">
+        <v>224</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="H213" t="s">
+        <v>20</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>21</v>
+      </c>
+      <c r="K213" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>229</v>
+      </c>
+      <c r="F214">
+        <v>2</v>
+      </c>
+      <c r="H214" t="s">
+        <v>13</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+      <c r="J214">
+        <v>69</v>
+      </c>
+      <c r="K214" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F215">
+        <v>2</v>
+      </c>
+      <c r="H215" t="s">
+        <v>20</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>44</v>
+      </c>
+      <c r="K215" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F216">
+        <v>2</v>
+      </c>
+      <c r="H216" t="s">
+        <v>13</v>
+      </c>
+      <c r="I216">
+        <v>2</v>
+      </c>
+      <c r="J216">
+        <v>69</v>
+      </c>
+      <c r="K216" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F217">
+        <v>2</v>
+      </c>
+      <c r="H217" t="s">
+        <v>20</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>44</v>
+      </c>
+      <c r="K217" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F218">
+        <v>2</v>
+      </c>
+      <c r="H218" t="s">
+        <v>13</v>
+      </c>
+      <c r="I218">
+        <v>3</v>
+      </c>
+      <c r="J218">
+        <v>101</v>
+      </c>
+      <c r="K218" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F219">
+        <v>2</v>
+      </c>
+      <c r="H219" t="s">
+        <v>20</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219" t="s">
+        <v>164</v>
+      </c>
+      <c r="K219" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F220">
+        <v>2</v>
+      </c>
+      <c r="H220" t="s">
+        <v>20</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220" t="s">
+        <v>164</v>
+      </c>
+      <c r="K220" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F221">
+        <v>2</v>
+      </c>
+      <c r="H221" t="s">
+        <v>20</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>164</v>
+      </c>
+      <c r="K221" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F222">
+        <v>2</v>
+      </c>
+      <c r="H222" t="s">
+        <v>13</v>
+      </c>
+      <c r="I222">
+        <v>3</v>
+      </c>
+      <c r="J222">
+        <v>101</v>
+      </c>
+      <c r="K222" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F223">
+        <v>2</v>
+      </c>
+      <c r="H223" t="s">
+        <v>20</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223" t="s">
+        <v>164</v>
+      </c>
+      <c r="K223" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F224">
+        <v>2</v>
+      </c>
+      <c r="H224" t="s">
+        <v>20</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224" t="s">
+        <v>164</v>
+      </c>
+      <c r="K224" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="225" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F225">
+        <v>2</v>
+      </c>
+      <c r="H225" t="s">
+        <v>20</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225" t="s">
+        <v>164</v>
+      </c>
+      <c r="K225" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="226" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F226">
+        <v>2</v>
+      </c>
+      <c r="H226" t="s">
+        <v>20</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226" t="s">
+        <v>164</v>
+      </c>
+      <c r="K226" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="227" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D227" t="s">
+        <v>19</v>
+      </c>
+      <c r="E227" t="s">
+        <v>238</v>
+      </c>
+      <c r="F227">
+        <v>2</v>
+      </c>
+      <c r="H227" t="s">
+        <v>20</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>38</v>
+      </c>
+      <c r="K227" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="228" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D228" t="s">
+        <v>19</v>
+      </c>
+      <c r="E228" t="s">
+        <v>238</v>
+      </c>
+      <c r="F228">
+        <v>2</v>
+      </c>
+      <c r="H228" t="s">
+        <v>20</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>38</v>
+      </c>
+      <c r="K228" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="229" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D229" t="s">
+        <v>19</v>
+      </c>
+      <c r="E229" t="s">
+        <v>238</v>
+      </c>
+      <c r="F229">
+        <v>2</v>
+      </c>
+      <c r="H229" t="s">
+        <v>20</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>36</v>
+      </c>
+      <c r="K229" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="230" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D230" t="s">
+        <v>19</v>
+      </c>
+      <c r="E230" t="s">
+        <v>238</v>
+      </c>
+      <c r="F230">
+        <v>2</v>
+      </c>
+      <c r="H230" t="s">
+        <v>20</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>36</v>
+      </c>
+      <c r="K230" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="231" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D231" t="s">
+        <v>19</v>
+      </c>
+      <c r="E231" t="s">
+        <v>238</v>
+      </c>
+      <c r="F231">
+        <v>2</v>
+      </c>
+      <c r="H231" t="s">
+        <v>20</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>36</v>
+      </c>
+      <c r="K231" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="232" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D232" t="s">
+        <v>121</v>
+      </c>
+      <c r="E232" t="s">
+        <v>242</v>
+      </c>
+      <c r="F232">
+        <v>2</v>
+      </c>
+      <c r="H232" t="s">
+        <v>178</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>121</v>
+      </c>
+      <c r="K232" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="233" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D233" t="s">
+        <v>121</v>
+      </c>
+      <c r="E233" t="s">
+        <v>242</v>
+      </c>
+      <c r="F233">
+        <v>2</v>
+      </c>
+      <c r="H233" t="s">
+        <v>178</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>119</v>
+      </c>
+      <c r="K233" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="234" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D234" t="s">
+        <v>121</v>
+      </c>
+      <c r="E234" t="s">
+        <v>242</v>
+      </c>
+      <c r="F234">
+        <v>2</v>
+      </c>
+      <c r="H234" t="s">
+        <v>178</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>119</v>
+      </c>
+      <c r="K234" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="235" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D235" t="s">
+        <v>121</v>
+      </c>
+      <c r="E235" t="s">
+        <v>242</v>
+      </c>
+      <c r="F235">
+        <v>2</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I235" s="1">
+        <v>1</v>
+      </c>
+      <c r="J235" s="1">
+        <v>115</v>
+      </c>
+      <c r="K235" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="236" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D236" t="s">
+        <v>121</v>
+      </c>
+      <c r="E236" t="s">
+        <v>242</v>
+      </c>
+      <c r="F236">
+        <v>2</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I236" s="1">
+        <v>1</v>
+      </c>
+      <c r="J236" s="1">
+        <v>115</v>
+      </c>
+      <c r="K236" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="237" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D237" t="s">
+        <v>121</v>
+      </c>
+      <c r="E237" t="s">
+        <v>242</v>
+      </c>
+      <c r="F237">
+        <v>2</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I237" s="1">
+        <v>1</v>
+      </c>
+      <c r="J237" s="1">
+        <v>115</v>
+      </c>
+      <c r="K237" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="238" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D238" t="s">
+        <v>121</v>
+      </c>
+      <c r="E238" t="s">
+        <v>242</v>
+      </c>
+      <c r="F238">
+        <v>2</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I238" s="1">
+        <v>1</v>
+      </c>
+      <c r="J238" s="1">
+        <v>117</v>
+      </c>
+      <c r="K238" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="239" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D239" t="s">
+        <v>121</v>
+      </c>
+      <c r="E239" t="s">
+        <v>242</v>
+      </c>
+      <c r="F239">
+        <v>2</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I239" s="2">
+        <v>1</v>
+      </c>
+      <c r="J239" s="2">
+        <v>117</v>
+      </c>
+      <c r="K239" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="240" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D240" t="s">
+        <v>121</v>
+      </c>
+      <c r="E240" t="s">
+        <v>242</v>
+      </c>
+      <c r="F240">
+        <v>2</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I240" s="2">
+        <v>1</v>
+      </c>
+      <c r="J240" s="2">
+        <v>117</v>
+      </c>
+      <c r="K240" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="241" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D241" t="s">
+        <v>121</v>
+      </c>
+      <c r="E241" t="s">
+        <v>242</v>
+      </c>
+      <c r="F241">
+        <v>2</v>
+      </c>
+      <c r="H241" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I241" s="2">
+        <v>1</v>
+      </c>
+      <c r="J241" s="2">
+        <v>117</v>
+      </c>
+      <c r="K241" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="242" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D242" t="s">
+        <v>121</v>
+      </c>
+      <c r="E242" t="s">
+        <v>242</v>
+      </c>
+      <c r="F242">
+        <v>2</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I242" s="1">
+        <v>1</v>
+      </c>
+      <c r="J242" s="1">
+        <v>96</v>
+      </c>
+      <c r="K242" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="243" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D243" t="s">
+        <v>121</v>
+      </c>
+      <c r="E243" t="s">
+        <v>242</v>
+      </c>
+      <c r="F243">
+        <v>2</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I243" s="1">
+        <v>1</v>
+      </c>
+      <c r="J243" s="1">
+        <v>97</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="244" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D244" t="s">
+        <v>121</v>
+      </c>
+      <c r="E244" t="s">
+        <v>242</v>
+      </c>
+      <c r="F244">
+        <v>2</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I244" s="1">
+        <v>1</v>
+      </c>
+      <c r="J244" s="1">
+        <v>96</v>
+      </c>
+      <c r="K244" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="245" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D245" t="s">
+        <v>121</v>
+      </c>
+      <c r="E245" t="s">
+        <v>242</v>
+      </c>
+      <c r="F245">
+        <v>2</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I245" s="1">
+        <v>1</v>
+      </c>
+      <c r="J245" s="1">
+        <v>97</v>
+      </c>
+      <c r="K245" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="246" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D246" t="s">
+        <v>121</v>
+      </c>
+      <c r="E246" t="s">
+        <v>242</v>
+      </c>
+      <c r="F246">
+        <v>2</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I246" s="2">
+        <v>1</v>
+      </c>
+      <c r="J246" s="2">
+        <v>97</v>
+      </c>
+      <c r="K246" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="247" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D247" t="s">
+        <v>121</v>
+      </c>
+      <c r="E247" t="s">
+        <v>242</v>
+      </c>
+      <c r="F247">
+        <v>2</v>
+      </c>
+      <c r="H247" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I247" s="2">
+        <v>1</v>
+      </c>
+      <c r="J247" s="2">
+        <v>97</v>
+      </c>
+      <c r="K247" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="248" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D248" t="s">
+        <v>121</v>
+      </c>
+      <c r="E248" t="s">
+        <v>242</v>
+      </c>
+      <c r="F248">
+        <v>2</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I248" s="2">
+        <v>1</v>
+      </c>
+      <c r="J248" s="2">
+        <v>97</v>
+      </c>
+      <c r="K248" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="249" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D249" t="s">
+        <v>121</v>
+      </c>
+      <c r="E249" t="s">
+        <v>242</v>
+      </c>
+      <c r="F249">
+        <v>2</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I249" s="2">
+        <v>1</v>
+      </c>
+      <c r="J249" s="2">
+        <v>97</v>
+      </c>
+      <c r="K249" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="250" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D250" t="s">
+        <v>19</v>
+      </c>
+      <c r="E250" t="s">
+        <v>255</v>
+      </c>
+      <c r="F250">
+        <v>4</v>
+      </c>
+      <c r="H250" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I250" s="2">
+        <v>1</v>
+      </c>
+      <c r="J250" s="2">
+        <v>85</v>
+      </c>
+      <c r="K250" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="251" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D251" t="s">
+        <v>19</v>
+      </c>
+      <c r="E251" t="s">
+        <v>255</v>
+      </c>
+      <c r="F251">
+        <v>4</v>
+      </c>
+      <c r="H251" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I251" s="2">
+        <v>1</v>
+      </c>
+      <c r="J251" s="2">
+        <v>85</v>
+      </c>
+      <c r="K251" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="252" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D252" t="s">
+        <v>19</v>
+      </c>
+      <c r="E252" t="s">
+        <v>255</v>
+      </c>
+      <c r="F252">
+        <v>4</v>
+      </c>
+      <c r="H252" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I252" s="2">
+        <v>1</v>
+      </c>
+      <c r="J252" s="2">
+        <v>33</v>
+      </c>
+      <c r="K252" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="253" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D253" t="s">
+        <v>19</v>
+      </c>
+      <c r="E253" t="s">
+        <v>255</v>
+      </c>
+      <c r="F253">
+        <v>4</v>
+      </c>
+      <c r="H253" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I253" s="2">
+        <v>1</v>
+      </c>
+      <c r="J253" s="2">
+        <v>98</v>
+      </c>
+      <c r="K253" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="254" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D254" t="s">
+        <v>19</v>
+      </c>
+      <c r="E254" t="s">
+        <v>255</v>
+      </c>
+      <c r="F254">
+        <v>4</v>
+      </c>
+      <c r="H254" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I254" s="2">
+        <v>1</v>
+      </c>
+      <c r="J254" s="2">
+        <v>98</v>
+      </c>
+      <c r="K254" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="255" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D255" t="s">
+        <v>19</v>
+      </c>
+      <c r="E255" t="s">
+        <v>255</v>
+      </c>
+      <c r="F255">
+        <v>4</v>
+      </c>
+      <c r="H255" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I255" s="2">
+        <v>1</v>
+      </c>
+      <c r="J255" s="2">
+        <v>98</v>
+      </c>
+      <c r="K255" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="256" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D256" t="s">
+        <v>19</v>
+      </c>
+      <c r="E256" t="s">
+        <v>255</v>
+      </c>
+      <c r="F256">
+        <v>4</v>
+      </c>
+      <c r="H256" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I256" s="2">
+        <v>1</v>
+      </c>
+      <c r="J256" s="2">
+        <v>98</v>
+      </c>
+      <c r="K256" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="257" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D257" t="s">
+        <v>19</v>
+      </c>
+      <c r="E257" t="s">
+        <v>255</v>
+      </c>
+      <c r="F257">
+        <v>4</v>
+      </c>
+      <c r="H257" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I257" s="2">
+        <v>1</v>
+      </c>
+      <c r="J257" s="2">
+        <v>98</v>
+      </c>
+      <c r="K257" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="258" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D258" t="s">
+        <v>19</v>
+      </c>
+      <c r="E258" t="s">
+        <v>255</v>
+      </c>
+      <c r="F258">
+        <v>4</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I258" s="2">
+        <v>1</v>
+      </c>
+      <c r="J258" s="2">
+        <v>98</v>
+      </c>
+      <c r="K258" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="259" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D259" t="s">
+        <v>19</v>
+      </c>
+      <c r="E259" t="s">
+        <v>255</v>
+      </c>
+      <c r="F259">
+        <v>4</v>
+      </c>
+      <c r="H259" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I259" s="2">
+        <v>1</v>
+      </c>
+      <c r="J259" s="2">
+        <v>41</v>
+      </c>
+      <c r="K259" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="260" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D260" t="s">
+        <v>19</v>
+      </c>
+      <c r="E260" t="s">
+        <v>255</v>
+      </c>
+      <c r="F260">
+        <v>4</v>
+      </c>
+      <c r="H260" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I260" s="2">
+        <v>1</v>
+      </c>
+      <c r="J260" s="2">
+        <v>36</v>
+      </c>
+      <c r="K260" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="261" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D261" t="s">
+        <v>19</v>
+      </c>
+      <c r="E261" t="s">
+        <v>255</v>
+      </c>
+      <c r="F261">
+        <v>4</v>
+      </c>
+      <c r="H261" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I261" s="2">
+        <v>1</v>
+      </c>
+      <c r="J261" s="2">
+        <v>36</v>
+      </c>
+      <c r="K261" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="262" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D262" t="s">
+        <v>19</v>
+      </c>
+      <c r="E262" t="s">
+        <v>255</v>
+      </c>
+      <c r="F262">
+        <v>4</v>
+      </c>
+      <c r="H262" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I262" s="2">
+        <v>1</v>
+      </c>
+      <c r="J262" s="2">
+        <v>36</v>
+      </c>
+      <c r="K262" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="263" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D263" t="s">
+        <v>19</v>
+      </c>
+      <c r="E263" t="s">
+        <v>255</v>
+      </c>
+      <c r="F263">
+        <v>4</v>
+      </c>
+      <c r="H263" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I263" s="2">
+        <v>1</v>
+      </c>
+      <c r="J263" s="2">
+        <v>37</v>
+      </c>
+      <c r="K263" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="264" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D264" t="s">
+        <v>19</v>
+      </c>
+      <c r="E264" t="s">
+        <v>255</v>
+      </c>
+      <c r="F264">
+        <v>4</v>
+      </c>
+      <c r="H264" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I264" s="2">
+        <v>1</v>
+      </c>
+      <c r="J264" s="2">
+        <v>19</v>
+      </c>
+      <c r="K264" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="265" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D265" t="s">
+        <v>19</v>
+      </c>
+      <c r="E265" t="s">
+        <v>255</v>
+      </c>
+      <c r="F265">
+        <v>4</v>
+      </c>
+      <c r="H265" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I265" s="2">
+        <v>1</v>
+      </c>
+      <c r="J265" s="2">
+        <v>18</v>
+      </c>
+      <c r="K265" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="266" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D266" t="s">
+        <v>19</v>
+      </c>
+      <c r="E266" t="s">
+        <v>255</v>
+      </c>
+      <c r="F266">
+        <v>4</v>
+      </c>
+      <c r="H266" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I266" s="2">
+        <v>2</v>
+      </c>
+      <c r="J266" s="2">
+        <v>77</v>
+      </c>
+      <c r="K266" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="267" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D267" t="s">
+        <v>19</v>
+      </c>
+      <c r="E267" t="s">
+        <v>255</v>
+      </c>
+      <c r="F267">
+        <v>4</v>
+      </c>
+      <c r="H267" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I267" s="2">
+        <v>1</v>
+      </c>
+      <c r="J267" s="2">
+        <v>45</v>
+      </c>
+      <c r="K267" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="268" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D268" t="s">
+        <v>19</v>
+      </c>
+      <c r="E268" t="s">
+        <v>255</v>
+      </c>
+      <c r="F268">
+        <v>4</v>
+      </c>
+      <c r="H268" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I268" s="2">
+        <v>1</v>
+      </c>
+      <c r="J268" s="2">
+        <v>45</v>
+      </c>
+      <c r="K268" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
